--- a/TCS_LDAS0300_Valid／品目妥当性チェック.xlsx
+++ b/TCS_LDAS0300_Valid／品目妥当性チェック.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E03D5-FD58-4A65-870E-63C5D0E4FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656CF98C-0B5C-4274-8353-ADD1EEC8FD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14700" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14700" uniqueCount="657">
   <si>
     <t>確認者</t>
     <rPh sb="0" eb="2">
@@ -3214,10 +3214,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>初期作成</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>品目の各項目に対してバリデーションチェックを行う。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3304,6 +3300,13 @@
   <si>
     <t>You cannot specify AIRS Item</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>余暁東</t>
   </si>
 </sst>
 </file>
@@ -7114,7 +7117,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="236" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D22" s="236"/>
       <c r="E22" s="236"/>
@@ -7166,7 +7169,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="234" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D27" s="235"/>
       <c r="E27" s="236"/>
@@ -7236,7 +7239,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.453125" defaultRowHeight="15"/>
@@ -7293,14 +7296,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="229">
-        <v>45957</v>
+        <v>45947</v>
       </c>
       <c r="D3" s="226" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="E3" s="228"/>
       <c r="F3" s="227" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -7729,7 +7732,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="252" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D2" s="252"/>
       <c r="E2" s="252"/>
@@ -7890,7 +7893,7 @@
         <v>187</v>
       </c>
       <c r="K7" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L7" s="21" t="s">
         <v>187</v>
@@ -7926,7 +7929,7 @@
         <v>187</v>
       </c>
       <c r="K8" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>187</v>
@@ -7964,7 +7967,7 @@
         <v>187</v>
       </c>
       <c r="K9" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>187</v>
@@ -8000,7 +8003,7 @@
         <v>187</v>
       </c>
       <c r="K10" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>187</v>
@@ -8038,7 +8041,7 @@
         <v>187</v>
       </c>
       <c r="K11" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>187</v>
@@ -8074,7 +8077,7 @@
         <v>187</v>
       </c>
       <c r="K12" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>187</v>
@@ -8112,7 +8115,7 @@
         <v>187</v>
       </c>
       <c r="K13" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L13" s="21" t="s">
         <v>187</v>
@@ -8148,7 +8151,7 @@
         <v>187</v>
       </c>
       <c r="K14" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>187</v>
@@ -8206,7 +8209,7 @@
         <v>187</v>
       </c>
       <c r="K16" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>187</v>
@@ -8244,7 +8247,7 @@
         <v>187</v>
       </c>
       <c r="K17" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>187</v>
@@ -8282,7 +8285,7 @@
         <v>187</v>
       </c>
       <c r="K18" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L18" s="21" t="s">
         <v>187</v>
@@ -8320,7 +8323,7 @@
         <v>187</v>
       </c>
       <c r="K19" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>187</v>
@@ -8378,7 +8381,7 @@
         <v>187</v>
       </c>
       <c r="K21" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>187</v>
@@ -8414,7 +8417,7 @@
         <v>187</v>
       </c>
       <c r="K22" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>187</v>
@@ -8454,7 +8457,7 @@
         <v>187</v>
       </c>
       <c r="K23" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L23" s="21" t="s">
         <v>187</v>
@@ -8494,7 +8497,7 @@
         <v>187</v>
       </c>
       <c r="K24" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>187</v>
@@ -8532,7 +8535,7 @@
         <v>187</v>
       </c>
       <c r="K25" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L25" s="21" t="s">
         <v>187</v>
@@ -8570,7 +8573,7 @@
         <v>187</v>
       </c>
       <c r="K26" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L26" s="21" t="s">
         <v>187</v>
@@ -8608,7 +8611,7 @@
         <v>187</v>
       </c>
       <c r="K27" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L27" s="21" t="s">
         <v>187</v>
@@ -8646,7 +8649,7 @@
         <v>187</v>
       </c>
       <c r="K28" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>187</v>
@@ -8684,7 +8687,7 @@
         <v>187</v>
       </c>
       <c r="K29" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L29" s="21" t="s">
         <v>187</v>
@@ -8722,7 +8725,7 @@
         <v>187</v>
       </c>
       <c r="K30" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L30" s="21" t="s">
         <v>187</v>
@@ -8760,7 +8763,7 @@
         <v>187</v>
       </c>
       <c r="K31" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L31" s="21" t="s">
         <v>187</v>
@@ -8798,7 +8801,7 @@
         <v>187</v>
       </c>
       <c r="K32" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>187</v>
@@ -8836,7 +8839,7 @@
         <v>187</v>
       </c>
       <c r="K33" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L33" s="21" t="s">
         <v>187</v>
@@ -8876,7 +8879,7 @@
         <v>187</v>
       </c>
       <c r="K34" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L34" s="21" t="s">
         <v>187</v>
@@ -8914,7 +8917,7 @@
         <v>187</v>
       </c>
       <c r="K35" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L35" s="21" t="s">
         <v>187</v>
@@ -8952,7 +8955,7 @@
         <v>187</v>
       </c>
       <c r="K36" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>187</v>
@@ -8990,7 +8993,7 @@
         <v>187</v>
       </c>
       <c r="K37" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L37" s="21" t="s">
         <v>187</v>
@@ -9030,7 +9033,7 @@
         <v>187</v>
       </c>
       <c r="K38" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L38" s="21" t="s">
         <v>187</v>
@@ -9068,7 +9071,7 @@
         <v>187</v>
       </c>
       <c r="K39" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>187</v>
@@ -9108,7 +9111,7 @@
         <v>187</v>
       </c>
       <c r="K40" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>187</v>
@@ -9146,7 +9149,7 @@
         <v>187</v>
       </c>
       <c r="K41" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>187</v>
@@ -9184,7 +9187,7 @@
         <v>187</v>
       </c>
       <c r="K42" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L42" s="21" t="s">
         <v>187</v>
@@ -9242,7 +9245,7 @@
         <v>187</v>
       </c>
       <c r="K44" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L44" s="21" t="s">
         <v>187</v>
@@ -9280,7 +9283,7 @@
         <v>187</v>
       </c>
       <c r="K45" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L45" s="21" t="s">
         <v>187</v>
@@ -9318,7 +9321,7 @@
         <v>187</v>
       </c>
       <c r="K46" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>187</v>
@@ -9356,7 +9359,7 @@
         <v>187</v>
       </c>
       <c r="K47" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L47" s="21" t="s">
         <v>187</v>
@@ -9394,7 +9397,7 @@
         <v>187</v>
       </c>
       <c r="K48" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L48" s="21" t="s">
         <v>187</v>
@@ -9432,7 +9435,7 @@
         <v>187</v>
       </c>
       <c r="K49" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L49" s="21" t="s">
         <v>187</v>
@@ -9470,7 +9473,7 @@
         <v>187</v>
       </c>
       <c r="K50" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L50" s="21" t="s">
         <v>187</v>
@@ -9508,7 +9511,7 @@
         <v>187</v>
       </c>
       <c r="K51" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L51" s="21" t="s">
         <v>187</v>
@@ -9546,7 +9549,7 @@
         <v>187</v>
       </c>
       <c r="K52" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L52" s="21" t="s">
         <v>187</v>
@@ -9584,7 +9587,7 @@
         <v>187</v>
       </c>
       <c r="K53" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L53" s="21" t="s">
         <v>187</v>
@@ -9622,7 +9625,7 @@
         <v>187</v>
       </c>
       <c r="K54" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>187</v>
@@ -9662,7 +9665,7 @@
         <v>187</v>
       </c>
       <c r="K55" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>187</v>
@@ -9700,7 +9703,7 @@
         <v>187</v>
       </c>
       <c r="K56" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L56" s="21" t="s">
         <v>187</v>
@@ -9738,7 +9741,7 @@
         <v>187</v>
       </c>
       <c r="K57" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>187</v>
@@ -9776,7 +9779,7 @@
         <v>187</v>
       </c>
       <c r="K58" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>187</v>
@@ -9814,7 +9817,7 @@
         <v>187</v>
       </c>
       <c r="K59" s="230" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L59" s="21" t="s">
         <v>187</v>
@@ -11594,6 +11597,7 @@
     <hyperlink ref="F21:F42" location="主処理!A1" display="主処理" xr:uid="{715106FC-B249-47C3-91EB-72E41D2B98AB}"/>
     <hyperlink ref="F44:F57" location="主処理!A1" display="主処理" xr:uid="{EB74D558-5061-4EF4-9E61-F4C7702F2B89}"/>
     <hyperlink ref="F58:F59" location="主処理!A1" display="主処理" xr:uid="{389C8C41-C464-45E2-9595-AB3DCF0934BF}"/>
+    <hyperlink ref="F34" location="主処理!A1" display="主処理" xr:uid="{373131AF-5F20-4FC6-BF4F-FA6191C67972}"/>
   </hyperlinks>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
@@ -20043,7 +20047,7 @@
         <v>564</v>
       </c>
       <c r="F21" s="231" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G21" s="231" t="s">
         <v>199</v>
@@ -20254,7 +20258,7 @@
         <v>567</v>
       </c>
       <c r="F32" s="231" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G32" s="231" t="s">
         <v>205</v>
@@ -20434,7 +20438,7 @@
         <v>567</v>
       </c>
       <c r="F41" s="231" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G41" s="231" t="s">
         <v>205</v>
@@ -20646,7 +20650,7 @@
         <v>569</v>
       </c>
       <c r="F52" s="231" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G52" s="231" t="s">
         <v>214</v>
@@ -20826,7 +20830,7 @@
         <v>569</v>
       </c>
       <c r="F61" s="231" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G61" s="231" t="s">
         <v>214</v>
@@ -21038,7 +21042,7 @@
         <v>571</v>
       </c>
       <c r="F72" s="231" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G72" s="231" t="s">
         <v>222</v>
@@ -21218,7 +21222,7 @@
         <v>571</v>
       </c>
       <c r="F81" s="231" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G81" s="231" t="s">
         <v>222</v>
@@ -26306,7 +26310,7 @@
         <v>573</v>
       </c>
       <c r="F64" s="233" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G64" s="233" t="s">
         <v>137</v>
@@ -28566,7 +28570,7 @@
         <v>575</v>
       </c>
       <c r="F94" s="233" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G94" s="233" t="s">
         <v>137</v>
@@ -30817,7 +30821,7 @@
         <v>575</v>
       </c>
       <c r="F124" s="233" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G124" s="233" t="s">
         <v>137</v>
@@ -33080,7 +33084,7 @@
         <v>577</v>
       </c>
       <c r="F154" s="233" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G154" s="233" t="s">
         <v>137</v>
@@ -58870,7 +58874,7 @@
         <v>579</v>
       </c>
       <c r="F484" s="233" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G484" s="233" t="s">
         <v>137</v>
@@ -61227,7 +61231,7 @@
         <v>581</v>
       </c>
       <c r="F514" s="233" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G514" s="233" t="s">
         <v>137</v>
@@ -65962,7 +65966,7 @@
         <v>583</v>
       </c>
       <c r="F577" s="233" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G577" s="233" t="s">
         <v>137</v>
@@ -68224,10 +68228,10 @@
         <v>155</v>
       </c>
       <c r="E607" s="233" t="s">
+        <v>649</v>
+      </c>
+      <c r="F607" s="233" t="s">
         <v>650</v>
-      </c>
-      <c r="F607" s="233" t="s">
-        <v>651</v>
       </c>
       <c r="G607" s="233" t="s">
         <v>137</v>
@@ -70494,7 +70498,7 @@
         <v>586</v>
       </c>
       <c r="F637" s="233" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G637" s="233" t="s">
         <v>137</v>
@@ -72737,7 +72741,7 @@
         <v>588</v>
       </c>
       <c r="F667" s="233" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G667" s="233" t="s">
         <v>137</v>
@@ -75008,7 +75012,7 @@
         <v>590</v>
       </c>
       <c r="F697" s="233" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G697" s="233" t="s">
         <v>137</v>
@@ -77279,7 +77283,7 @@
         <v>592</v>
       </c>
       <c r="F727" s="233" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G727" s="233" t="s">
         <v>137</v>
@@ -77420,6 +77424,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="0be5c32e-5c31-4bc5-90ad-32aa3de5e370" xsi:nil="true"/>
@@ -77427,11 +77440,11 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101008C1A78C8BA617741815C408FC2226F78" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="471a8c2dab4ccd4eab1f869bd178a018">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0be5c32e-5c31-4bc5-90ad-32aa3de5e370" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e493ba474fa5c87bf5aa9e485136a040" ns3:_="">
     <xsd:import namespace="0be5c32e-5c31-4bc5-90ad-32aa3de5e370"/>
@@ -77581,16 +77594,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B6BF48-E3F6-4B13-9192-4EFFE42803ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2FADD67-DD7C-4D45-8940-C6EB8B5BA1F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -77606,7 +77618,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2B1990-BD69-40EB-A43C-6C4C780A6DE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -77614,7 +77626,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6C043C0-55C4-4BC2-999C-6CD59D03BCA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -77632,14 +77644,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B6BF48-E3F6-4B13-9192-4EFFE42803ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{76684a67-d816-43ce-93f9-29b6f72f823f}" enabled="0" method="" siteId="{76684a67-d816-43ce-93f9-29b6f72f823f}" removed="1"/>
